--- a/TiledFiles/chart.xlsx
+++ b/TiledFiles/chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Desktop\bin_game\BinningGame\TiledFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481EE3D-F6BE-48E5-BC7C-1528E03AC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFEEC7-C45A-47C6-B922-0788E257C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D17D69F-F316-458B-885C-09323B847563}"/>
+    <workbookView xWindow="-552" yWindow="636" windowWidth="17280" windowHeight="8964" xr2:uid="{0D17D69F-F316-458B-885C-09323B847563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,16 +160,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1269,6 +1279,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2355,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126D1BF6-9575-40F1-ADC7-8FB13EDB5C7F}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,7 +2384,7 @@
     <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2388,8 +2405,12 @@
       <c r="C2" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="E2" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2399,8 +2420,12 @@
       <c r="C3" s="1">
         <v>0.12</v>
       </c>
+      <c r="E3" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>0.15483870967741936</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2435,12 @@
       <c r="C4" s="1">
         <v>0.11</v>
       </c>
+      <c r="E4" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>0.14193548387096774</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2421,8 +2450,12 @@
       <c r="C5" s="1">
         <v>0.11</v>
       </c>
+      <c r="E5" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>0.14193548387096774</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2432,8 +2465,12 @@
       <c r="C6" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="E6" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>9.0322580645161299E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2443,8 +2480,12 @@
       <c r="C7" s="1">
         <v>0.01</v>
       </c>
+      <c r="E7" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2454,8 +2495,12 @@
       <c r="C8" s="1">
         <v>0.08</v>
       </c>
+      <c r="E8" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>0.1032258064516129</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2465,8 +2510,12 @@
       <c r="C9" s="1">
         <v>0.02</v>
       </c>
+      <c r="E9" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>2.5806451612903226E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2476,8 +2525,12 @@
       <c r="C10" s="1">
         <v>0.04</v>
       </c>
+      <c r="E10" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>5.1612903225806452E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2487,8 +2540,14 @@
       <c r="C11" s="1">
         <v>0.01</v>
       </c>
+      <c r="E11" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2498,16 +2557,24 @@
       <c r="C12" s="1">
         <v>0.17</v>
       </c>
+      <c r="E12" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>0.21935483870967742</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>0.03</v>
       </c>
+      <c r="E13" s="3">
+        <f>(Table1[[#This Row],[Column2]]*100)/77.5</f>
+        <v>3.870967741935484E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
